--- a/medicine/Enfance/Boys'_World/Boys'_World.xlsx
+++ b/medicine/Enfance/Boys'_World/Boys'_World.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boys%27_World</t>
+          <t>Boys'_World</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Boys' World est une courte revue britannique destinée à la jeunesse à l’existence éphémère (1963-1964) sur le modèle de la revue Eagle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boys%27_World</t>
+          <t>Boys'_World</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Rapide historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959 Odhams Press rachète Hulton Press avant de se faire lui-même racheter par Fleetway en 1961. La nouvelle direction remarquant une érosion des ventes d’Eagle décide de lancer un nouvel hebdomadaire destiné aux garçons Boys’ World.
 Le journal ne manque pas d’attraits. Contrairement aux revues concurrentes dont la première page est constituée d’une têtière suivie d’une bande dessinée, celle-ci offre une couverture pleine page où est dessinée une situation réelle et dramatique avec cette simple question « Et vous que feriez-vous ? » la réponse se trouve bien évidemment à l’intérieur de la revue qui bénéficie de 4 pages couleurs (couverture incluse).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boys%27_World</t>
+          <t>Boys'_World</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brett Million
-Une série de science-fiction, censée reproduire le succès de Dan Dare, située sur la Planète Pirrus et avec comme héros Brett Million. Deux épisodes tous les deux en couleurs. Plusieurs dessinateurs se succèdent dont Frank Bellamy, H.K. Bulmer et Frank Langford.
+          <t>Brett Million</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une série de science-fiction, censée reproduire le succès de Dan Dare, située sur la Planète Pirrus et avec comme héros Brett Million. Deux épisodes tous les deux en couleurs. Plusieurs dessinateurs se succèdent dont Frank Bellamy, H.K. Bulmer et Frank Langford.
 Angry Planet (22 planches en format double à l'italienne soit l'équivalent de 44 pages)
-Ghost World (21 planches en format traditionnel)
-John Brody
-John Brody est un journaliste scientifique du Daily Newsflash dont les nerfs sont mis à rude épreuve dans des enquêtes à connotation policière qui confinent au surnaturel. Brian Lewis officie aux dessins.
+Ghost World (21 planches en format traditionnel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boys'_World</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boys%27_World</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Séries principales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>John Brody</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Brody est un journaliste scientifique du Daily Newsflash dont les nerfs sont mis à rude épreuve dans des enquêtes à connotation policière qui confinent au surnaturel. Brian Lewis officie aux dessins.
 What is Exhibit X ?
 Une curieuse statue a le pouvoir émet des ondes susceptibles de transformer les hommes en esclaves dociles. Bientôt c'est tout le Royaume-Uni qui est sous la menace. 23 planches en format double soit l'équivalent de 46 pages.
 The House on Scar Island
@@ -567,8 +620,43 @@
 Cette fois-ci c’est en Afrique que se rend John dans la région d’Odon. Aventure de 23 planches en couleurs.
 The Fires of Vishna
 Courte aventure de 4 planches parues dans l'almanach Boy's World 1965.
-Merlo the Magician
-Originellement un roman de Harry Harrison, Spell of Magic, est une série policière et d’espionnage qui a connu quatre aventures dans la revue. Toutes les planches sont en noir et blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boys'_World</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boys%27_World</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Séries principales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Merlo the Magician</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originellement un roman de Harry Harrison, Spell of Magic, est une série policière et d’espionnage qui a connu quatre aventures dans la revue. Toutes les planches sont en noir et blanc.
 Men without Faces
 Comment démanteler une organisation privée d’espionnage. L’action se situe principalement en Espagne puis en France. 30 planches publiées à raison de 1,5 par numéro.
 The Army of Crime
@@ -579,8 +667,43 @@
 La mission est de récupérer un agent capturé derrière le rideau de fer, sauf s’il a trahi bien sûr. 19,5 planches publiées à raison de 1,5 par numéro.
 Death in Venice
 Courte aventure de 4 planches parues dans l'almanach Boy's World 1965.
-Pike Mason
-Pike Mason est un marin, plongeur de surcroît, accompagné dans ses aventures par un Philippin, Quarro. Les scénarios sont signés Tom Tully et les dessins, magnifiques, en noir et blanc sont dus à Luis Bermejo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boys'_World</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boys%27_World</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Séries principales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pike Mason</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pike Mason est un marin, plongeur de surcroît, accompagné dans ses aventures par un Philippin, Quarro. Les scénarios sont signés Tom Tully et les dessins, magnifiques, en noir et blanc sont dus à Luis Bermejo.
 The Sea Ape
 Alors qu’ils sont à la recherche de Peter Haler, Pike et Quarro font relâche devant l’île Groans réputée pour abriter un singe marin. Cet épisode est composé de 48 pages, la plupart en format double à l'italienne.
 The Curse of Zentaca
@@ -589,8 +712,43 @@
 John et Quarro sont à la recherche d’une épave dans les eaux irlandaises. Mais il semblerait qu’elles ne soient pas de tout repos. 46 planches.
 Slave Kingdom
 Courte aventure de 4 planches parues dans l'almanach Boy's World 1965.
-The Wrath of Gods
-Après Wulf the Briton dans Express Weekly, Ron Embleton revient dans l’antiquité avec cette série en couleur dessinée située dans la mythologie grecque. C’est le romancier Michael Moorcock qui signe le scénario. A noter que selon les numéros les pages peuvent être présentées en format à l’italienne sur une double page et d’autres fois sur une page seule. L'histoire n'étant pas terminée, elle se poursuit dans le n°41 d'Eagle de l'année 1964 et se termine au n°47 de la même année. A noter que ces 12 planches passent, en changeant de revue, à un format traditionnel. Eagle publiant déjà un péplum, Heros the Spartan, la série n'avait pas de raison de continuer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boys'_World</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boys%27_World</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Séries principales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>The Wrath of Gods</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après Wulf the Briton dans Express Weekly, Ron Embleton revient dans l’antiquité avec cette série en couleur dessinée située dans la mythologie grecque. C’est le romancier Michael Moorcock qui signe le scénario. A noter que selon les numéros les pages peuvent être présentées en format à l’italienne sur une double page et d’autres fois sur une page seule. L'histoire n'étant pas terminée, elle se poursuit dans le n°41 d'Eagle de l'année 1964 et se termine au n°47 de la même année. A noter que ces 12 planches passent, en changeant de revue, à un format traditionnel. Eagle publiant déjà un péplum, Heros the Spartan, la série n'avait pas de raison de continuer.
 En tenant compte pour deux pages les planches en format à l'italienne, cette série fait 168 pages.
 </t>
         </is>
